--- a/Raw/Full_Year.xlsx
+++ b/Raw/Full_Year.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Hetal Ben\Raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Bhuvnesh\Hetal Ben\Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720053FE-2443-4875-B32C-C832C64F693F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927A573E-6D24-4823-AE78-76C9C0463D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,40 +534,64 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -593,30 +617,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -939,187 +939,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
       <c r="AA1" s="27"/>
     </row>
     <row r="2" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
       <c r="AA2" s="28"/>
     </row>
     <row r="3" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
       <c r="AA3" s="28"/>
     </row>
     <row r="4" spans="1:36" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="64"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="61"/>
       <c r="AA4" s="28"/>
     </row>
     <row r="5" spans="1:36" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="58"/>
-      <c r="Z5" s="59"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="55"/>
       <c r="AA5" s="27"/>
     </row>
     <row r="6" spans="1:36" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
-      <c r="C6" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54" t="s">
+      <c r="C6" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54" t="s">
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="54"/>
-      <c r="Y6" s="54"/>
-      <c r="Z6" s="54"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
       <c r="AA6" s="28"/>
       <c r="AB6" s="11" t="s">
         <v>21</v>
@@ -1134,54 +1134,54 @@
       <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55" t="s">
+      <c r="D7" s="63"/>
+      <c r="E7" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="F7" s="63"/>
+      <c r="G7" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="56" t="s">
+      <c r="H7" s="63"/>
+      <c r="I7" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="56"/>
-      <c r="K7" s="55" t="s">
+      <c r="J7" s="64"/>
+      <c r="K7" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55" t="s">
+      <c r="L7" s="63"/>
+      <c r="M7" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55" t="s">
+      <c r="N7" s="63"/>
+      <c r="O7" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="54" t="s">
+      <c r="P7" s="63"/>
+      <c r="Q7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="54"/>
-      <c r="S7" s="55" t="s">
+      <c r="R7" s="56"/>
+      <c r="S7" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55" t="s">
+      <c r="T7" s="63"/>
+      <c r="U7" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55" t="s">
+      <c r="V7" s="63"/>
+      <c r="W7" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="54" t="s">
+      <c r="X7" s="63"/>
+      <c r="Y7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="Z7" s="54"/>
+      <c r="Z7" s="56"/>
       <c r="AA7" s="28"/>
       <c r="AC7" s="2"/>
       <c r="AE7" s="11">
@@ -2981,15 +2981,15 @@
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B22" s="16"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="53">
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62">
         <f>Y21+Z21</f>
         <v>918</v>
       </c>
-      <c r="Z22" s="53"/>
+      <c r="Z22" s="62"/>
       <c r="AA22" s="31"/>
       <c r="AB22" s="11">
         <f>Y21+Z21</f>
@@ -3117,14 +3117,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B5:Z5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="K6:R6"/>
-    <mergeCell ref="S6:Z6"/>
-    <mergeCell ref="B1:Z1"/>
-    <mergeCell ref="B2:Z2"/>
-    <mergeCell ref="B3:Z3"/>
-    <mergeCell ref="B4:Z4"/>
     <mergeCell ref="Y22:Z22"/>
     <mergeCell ref="U22:X22"/>
     <mergeCell ref="Y7:Z7"/>
@@ -3139,6 +3131,14 @@
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="U7:V7"/>
+    <mergeCell ref="B5:Z5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="S6:Z6"/>
+    <mergeCell ref="B1:Z1"/>
+    <mergeCell ref="B2:Z2"/>
+    <mergeCell ref="B3:Z3"/>
+    <mergeCell ref="B4:Z4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.24" right="0.2" top="0.3" bottom="0.14000000000000001" header="0.3" footer="0.3"/>
@@ -3154,7 +3154,7 @@
   <dimension ref="A2:AN29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="111" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3187,189 +3187,189 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:40" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
       <c r="AA2" s="40"/>
     </row>
     <row r="3" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="67"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="75"/>
       <c r="AA3" s="41"/>
     </row>
     <row r="4" spans="1:40" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="68"/>
-      <c r="Z4" s="68"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
       <c r="AA4" s="41"/>
     </row>
     <row r="5" spans="1:40" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="70"/>
-      <c r="X5" s="70"/>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="71"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="78"/>
+      <c r="Z5" s="79"/>
       <c r="AA5" s="41"/>
     </row>
     <row r="6" spans="1:40" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="72"/>
-      <c r="Z6" s="72"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="80"/>
       <c r="AA6" s="40"/>
     </row>
     <row r="7" spans="1:40" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54" t="s">
+      <c r="C7" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54" t="s">
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="54"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
       <c r="AF7" s="41"/>
       <c r="AG7" s="11" t="s">
         <v>21</v>
@@ -3377,55 +3377,55 @@
       <c r="AH7" s="2"/>
     </row>
     <row r="8" spans="1:40" s="11" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="80"/>
-      <c r="C8" s="55" t="s">
+      <c r="B8" s="66"/>
+      <c r="C8" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55" t="s">
+      <c r="D8" s="63"/>
+      <c r="E8" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55" t="s">
+      <c r="F8" s="63"/>
+      <c r="G8" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="56" t="s">
+      <c r="H8" s="63"/>
+      <c r="I8" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="56"/>
-      <c r="K8" s="55" t="s">
+      <c r="J8" s="64"/>
+      <c r="K8" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55" t="s">
+      <c r="L8" s="63"/>
+      <c r="M8" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55" t="s">
+      <c r="N8" s="63"/>
+      <c r="O8" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="54" t="s">
+      <c r="P8" s="63"/>
+      <c r="Q8" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="R8" s="54"/>
-      <c r="S8" s="55" t="s">
+      <c r="R8" s="56"/>
+      <c r="S8" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55" t="s">
+      <c r="T8" s="63"/>
+      <c r="U8" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55" t="s">
+      <c r="V8" s="63"/>
+      <c r="W8" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="54" t="s">
+      <c r="X8" s="63"/>
+      <c r="Y8" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="Z8" s="54"/>
+      <c r="Z8" s="56"/>
       <c r="AH8" s="2"/>
     </row>
     <row r="9" spans="1:40" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3505,10 +3505,10 @@
       <c r="AH9" s="2"/>
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
-      <c r="AM9" s="54" t="s">
+      <c r="AM9" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="AN9" s="54"/>
+      <c r="AN9" s="56"/>
     </row>
     <row r="10" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="47"/>
@@ -3594,11 +3594,11 @@
       <c r="AJ10" s="11"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
-      <c r="AM10" s="54">
+      <c r="AM10" s="56">
         <f t="shared" ref="AM10:AM22" si="0">SUM(Y10:Z10)</f>
         <v>286</v>
       </c>
-      <c r="AN10" s="54"/>
+      <c r="AN10" s="56"/>
     </row>
     <row r="11" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47"/>
@@ -3688,11 +3688,11 @@
         <v>31</v>
       </c>
       <c r="AL11" s="2"/>
-      <c r="AM11" s="54">
+      <c r="AM11" s="56">
         <f t="shared" si="0"/>
         <v>336</v>
       </c>
-      <c r="AN11" s="54"/>
+      <c r="AN11" s="56"/>
     </row>
     <row r="12" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="47"/>
@@ -3718,7 +3718,7 @@
         <v>12</v>
       </c>
       <c r="I12" s="43">
-        <f t="shared" ref="I11:J21" si="2">C12+E12+G12</f>
+        <f t="shared" ref="I12:J21" si="2">C12+E12+G12</f>
         <v>99</v>
       </c>
       <c r="J12" s="43">
@@ -3744,7 +3744,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="39">
-        <f t="shared" ref="Q11:R21" si="3">K12+M12+O12</f>
+        <f t="shared" ref="Q12:R21" si="3">K12+M12+O12</f>
         <v>145</v>
       </c>
       <c r="R12" s="39">
@@ -3788,11 +3788,11 @@
         <v>2555</v>
       </c>
       <c r="AL12" s="2"/>
-      <c r="AM12" s="54">
+      <c r="AM12" s="56">
         <f t="shared" si="0"/>
         <v>445</v>
       </c>
-      <c r="AN12" s="54"/>
+      <c r="AN12" s="56"/>
     </row>
     <row r="13" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="47"/>
@@ -3879,17 +3879,17 @@
       </c>
       <c r="AH13" s="2"/>
       <c r="AI13" s="11"/>
-      <c r="AJ13" s="54">
+      <c r="AJ13" s="56">
         <f>SUM(AJ12:AK12)</f>
         <v>4599</v>
       </c>
-      <c r="AK13" s="54"/>
+      <c r="AK13" s="56"/>
       <c r="AL13" s="2"/>
-      <c r="AM13" s="54">
+      <c r="AM13" s="56">
         <f t="shared" si="0"/>
         <v>460</v>
       </c>
-      <c r="AN13" s="54"/>
+      <c r="AN13" s="56"/>
     </row>
     <row r="14" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="47"/>
@@ -3984,11 +3984,11 @@
       <c r="AJ14" s="11"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
-      <c r="AM14" s="54">
+      <c r="AM14" s="56">
         <f t="shared" si="0"/>
         <v>373</v>
       </c>
-      <c r="AN14" s="54"/>
+      <c r="AN14" s="56"/>
     </row>
     <row r="15" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="47"/>
@@ -4084,11 +4084,11 @@
       <c r="AJ15" s="11"/>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
-      <c r="AM15" s="54">
+      <c r="AM15" s="56">
         <f t="shared" si="0"/>
         <v>392</v>
       </c>
-      <c r="AN15" s="54"/>
+      <c r="AN15" s="56"/>
     </row>
     <row r="16" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="47"/>
@@ -4184,11 +4184,11 @@
       <c r="AJ16" s="11"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
-      <c r="AM16" s="54">
+      <c r="AM16" s="56">
         <f t="shared" si="0"/>
         <v>381</v>
       </c>
-      <c r="AN16" s="54"/>
+      <c r="AN16" s="56"/>
     </row>
     <row r="17" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="47"/>
@@ -4283,11 +4283,11 @@
       <c r="AJ17" s="11"/>
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
-      <c r="AM17" s="54">
+      <c r="AM17" s="56">
         <f t="shared" si="0"/>
         <v>277</v>
       </c>
-      <c r="AN17" s="54"/>
+      <c r="AN17" s="56"/>
     </row>
     <row r="18" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="47"/>
@@ -4383,11 +4383,11 @@
       <c r="AJ18" s="11"/>
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
-      <c r="AM18" s="54">
+      <c r="AM18" s="56">
         <f t="shared" si="0"/>
         <v>328</v>
       </c>
-      <c r="AN18" s="54"/>
+      <c r="AN18" s="56"/>
     </row>
     <row r="19" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="47"/>
@@ -4483,11 +4483,11 @@
       <c r="AJ19" s="11"/>
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
-      <c r="AM19" s="54">
+      <c r="AM19" s="56">
         <f t="shared" si="0"/>
         <v>442</v>
       </c>
-      <c r="AN19" s="54"/>
+      <c r="AN19" s="56"/>
     </row>
     <row r="20" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="47"/>
@@ -4583,11 +4583,11 @@
       <c r="AJ20" s="11"/>
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
-      <c r="AM20" s="54">
+      <c r="AM20" s="56">
         <f t="shared" si="0"/>
         <v>404</v>
       </c>
-      <c r="AN20" s="54"/>
+      <c r="AN20" s="56"/>
     </row>
     <row r="21" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="47"/>
@@ -4683,11 +4683,11 @@
       <c r="AJ21" s="11"/>
       <c r="AK21" s="2"/>
       <c r="AL21" s="2"/>
-      <c r="AM21" s="54">
+      <c r="AM21" s="56">
         <f t="shared" si="0"/>
         <v>475</v>
       </c>
-      <c r="AN21" s="54"/>
+      <c r="AN21" s="56"/>
     </row>
     <row r="22" spans="1:40" s="48" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
@@ -4796,43 +4796,43 @@
       <c r="AJ22" s="14"/>
       <c r="AK22" s="14"/>
       <c r="AL22" s="14"/>
-      <c r="AM22" s="54">
+      <c r="AM22" s="56">
         <f t="shared" si="0"/>
         <v>4599</v>
       </c>
-      <c r="AN22" s="54"/>
+      <c r="AN22" s="56"/>
     </row>
     <row r="23" spans="1:40" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="76">
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="70">
         <f>Y22+Z22</f>
         <v>4599</v>
       </c>
-      <c r="O23" s="77"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="77"/>
-      <c r="S23" s="77"/>
-      <c r="T23" s="77"/>
-      <c r="U23" s="77"/>
-      <c r="V23" s="77"/>
-      <c r="W23" s="77"/>
-      <c r="X23" s="77"/>
-      <c r="Y23" s="77"/>
-      <c r="Z23" s="78"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="71"/>
+      <c r="U23" s="71"/>
+      <c r="V23" s="71"/>
+      <c r="W23" s="71"/>
+      <c r="X23" s="71"/>
+      <c r="Y23" s="71"/>
+      <c r="Z23" s="72"/>
       <c r="AF23" s="41"/>
       <c r="AG23" s="11"/>
       <c r="AH23" s="40"/>
@@ -4874,6 +4874,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="AM13:AN13"/>
+    <mergeCell ref="B2:Z2"/>
+    <mergeCell ref="B3:Z3"/>
+    <mergeCell ref="B4:Z4"/>
+    <mergeCell ref="B5:Z5"/>
+    <mergeCell ref="B6:Z6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AM21:AN21"/>
+    <mergeCell ref="AM22:AN22"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="N23:Z23"/>
+    <mergeCell ref="AM19:AN19"/>
+    <mergeCell ref="AM20:AN20"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="AM15:AN15"/>
     <mergeCell ref="AM16:AN16"/>
@@ -4890,28 +4912,6 @@
     <mergeCell ref="AM10:AN10"/>
     <mergeCell ref="AM11:AN11"/>
     <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AM21:AN21"/>
-    <mergeCell ref="AM22:AN22"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="N23:Z23"/>
-    <mergeCell ref="AM19:AN19"/>
-    <mergeCell ref="AM20:AN20"/>
-    <mergeCell ref="AM13:AN13"/>
-    <mergeCell ref="B2:Z2"/>
-    <mergeCell ref="B3:Z3"/>
-    <mergeCell ref="B4:Z4"/>
-    <mergeCell ref="B5:Z5"/>
-    <mergeCell ref="B6:Z6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283461" right="0.70866141732283461" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Raw/Full_Year.xlsx
+++ b/Raw/Full_Year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Bhuvnesh\Hetal Ben\Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927A573E-6D24-4823-AE78-76C9C0463D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BE85AB-36B4-4174-B073-1321AFAA42F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5472" yWindow="3744" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PATRAK-1. OPD-IPD Report" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -534,6 +532,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -543,9 +553,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -561,13 +568,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -575,48 +615,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -939,187 +937,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
       <c r="AA1" s="27"/>
     </row>
     <row r="2" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
       <c r="AA2" s="28"/>
     </row>
     <row r="3" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
       <c r="AA3" s="28"/>
     </row>
     <row r="4" spans="1:36" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="61"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="64"/>
       <c r="AA4" s="28"/>
     </row>
     <row r="5" spans="1:36" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="55"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="59"/>
       <c r="AA5" s="27"/>
     </row>
     <row r="6" spans="1:36" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
-      <c r="C6" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56" t="s">
+      <c r="C6" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56" t="s">
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
       <c r="AA6" s="28"/>
       <c r="AB6" s="11" t="s">
         <v>21</v>
@@ -1134,54 +1132,54 @@
       <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63" t="s">
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="64" t="s">
+      <c r="H7" s="55"/>
+      <c r="I7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="64"/>
-      <c r="K7" s="63" t="s">
+      <c r="J7" s="56"/>
+      <c r="K7" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63" t="s">
+      <c r="L7" s="55"/>
+      <c r="M7" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63" t="s">
+      <c r="N7" s="55"/>
+      <c r="O7" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="56" t="s">
+      <c r="P7" s="55"/>
+      <c r="Q7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="56"/>
-      <c r="S7" s="63" t="s">
+      <c r="R7" s="54"/>
+      <c r="S7" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="T7" s="63"/>
-      <c r="U7" s="63" t="s">
+      <c r="T7" s="55"/>
+      <c r="U7" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="V7" s="63"/>
-      <c r="W7" s="63" t="s">
+      <c r="V7" s="55"/>
+      <c r="W7" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="X7" s="63"/>
-      <c r="Y7" s="56" t="s">
+      <c r="X7" s="55"/>
+      <c r="Y7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="Z7" s="56"/>
+      <c r="Z7" s="54"/>
       <c r="AA7" s="28"/>
       <c r="AC7" s="2"/>
       <c r="AE7" s="11">
@@ -2981,15 +2979,15 @@
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B22" s="16"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="62"/>
-      <c r="Y22" s="62">
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53">
         <f>Y21+Z21</f>
         <v>918</v>
       </c>
-      <c r="Z22" s="62"/>
+      <c r="Z22" s="53"/>
       <c r="AA22" s="31"/>
       <c r="AB22" s="11">
         <f>Y21+Z21</f>
@@ -3117,6 +3115,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B5:Z5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="S6:Z6"/>
+    <mergeCell ref="B1:Z1"/>
+    <mergeCell ref="B2:Z2"/>
+    <mergeCell ref="B3:Z3"/>
+    <mergeCell ref="B4:Z4"/>
     <mergeCell ref="Y22:Z22"/>
     <mergeCell ref="U22:X22"/>
     <mergeCell ref="Y7:Z7"/>
@@ -3131,14 +3137,6 @@
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="U7:V7"/>
-    <mergeCell ref="B5:Z5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="K6:R6"/>
-    <mergeCell ref="S6:Z6"/>
-    <mergeCell ref="B1:Z1"/>
-    <mergeCell ref="B2:Z2"/>
-    <mergeCell ref="B3:Z3"/>
-    <mergeCell ref="B4:Z4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.24" right="0.2" top="0.3" bottom="0.14000000000000001" header="0.3" footer="0.3"/>
@@ -3153,8 +3151,8 @@
   </sheetPr>
   <dimension ref="A2:AN29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="111" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="82" zoomScaleNormal="111" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3187,189 +3185,189 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:40" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
       <c r="AA2" s="40"/>
     </row>
     <row r="3" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="75"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="67"/>
       <c r="AA3" s="41"/>
     </row>
     <row r="4" spans="1:40" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
       <c r="AA4" s="41"/>
     </row>
     <row r="5" spans="1:40" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="78"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
-      <c r="X5" s="78"/>
-      <c r="Y5" s="78"/>
-      <c r="Z5" s="79"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="70"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="71"/>
       <c r="AA5" s="41"/>
     </row>
     <row r="6" spans="1:40" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="80"/>
-      <c r="U6" s="80"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="80"/>
-      <c r="Y6" s="80"/>
-      <c r="Z6" s="80"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="72"/>
       <c r="AA6" s="40"/>
     </row>
     <row r="7" spans="1:40" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56" t="s">
+      <c r="C7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56" t="s">
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="54"/>
       <c r="AF7" s="41"/>
       <c r="AG7" s="11" t="s">
         <v>21</v>
@@ -3377,55 +3375,55 @@
       <c r="AH7" s="2"/>
     </row>
     <row r="8" spans="1:40" s="11" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="66"/>
-      <c r="C8" s="63" t="s">
+      <c r="B8" s="80"/>
+      <c r="C8" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63" t="s">
+      <c r="F8" s="55"/>
+      <c r="G8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="63"/>
-      <c r="I8" s="64" t="s">
+      <c r="H8" s="55"/>
+      <c r="I8" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="64"/>
-      <c r="K8" s="63" t="s">
+      <c r="J8" s="56"/>
+      <c r="K8" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63" t="s">
+      <c r="L8" s="55"/>
+      <c r="M8" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63" t="s">
+      <c r="N8" s="55"/>
+      <c r="O8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="56" t="s">
+      <c r="P8" s="55"/>
+      <c r="Q8" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="R8" s="56"/>
-      <c r="S8" s="63" t="s">
+      <c r="R8" s="54"/>
+      <c r="S8" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="T8" s="63"/>
-      <c r="U8" s="63" t="s">
+      <c r="T8" s="55"/>
+      <c r="U8" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="V8" s="63"/>
-      <c r="W8" s="63" t="s">
+      <c r="V8" s="55"/>
+      <c r="W8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="X8" s="63"/>
-      <c r="Y8" s="56" t="s">
+      <c r="X8" s="55"/>
+      <c r="Y8" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="Z8" s="56"/>
+      <c r="Z8" s="54"/>
       <c r="AH8" s="2"/>
     </row>
     <row r="9" spans="1:40" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3505,10 +3503,10 @@
       <c r="AH9" s="2"/>
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
-      <c r="AM9" s="56" t="s">
+      <c r="AM9" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="AN9" s="56"/>
+      <c r="AN9" s="54"/>
     </row>
     <row r="10" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="47"/>
@@ -3588,17 +3586,21 @@
       <c r="Z10" s="39">
         <f>T10+V10+X10</f>
         <v>160</v>
+      </c>
+      <c r="AB10" s="11">
+        <f>SUM(Y10+Z10)</f>
+        <v>286</v>
       </c>
       <c r="AH10" s="2"/>
       <c r="AI10" s="11"/>
       <c r="AJ10" s="11"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
-      <c r="AM10" s="56">
+      <c r="AM10" s="54">
         <f t="shared" ref="AM10:AM22" si="0">SUM(Y10:Z10)</f>
         <v>286</v>
       </c>
-      <c r="AN10" s="56"/>
+      <c r="AN10" s="54"/>
     </row>
     <row r="11" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47"/>
@@ -3679,6 +3681,10 @@
         <f t="shared" si="1"/>
         <v>171</v>
       </c>
+      <c r="AB11" s="11">
+        <f t="shared" ref="AB11:AB22" si="2">SUM(Y11+Z11)</f>
+        <v>336</v>
+      </c>
       <c r="AH11" s="2"/>
       <c r="AI11" s="11"/>
       <c r="AJ11" s="44" t="s">
@@ -3688,11 +3694,11 @@
         <v>31</v>
       </c>
       <c r="AL11" s="2"/>
-      <c r="AM11" s="56">
+      <c r="AM11" s="54">
         <f t="shared" si="0"/>
         <v>336</v>
       </c>
-      <c r="AN11" s="56"/>
+      <c r="AN11" s="54"/>
     </row>
     <row r="12" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="47"/>
@@ -3718,11 +3724,11 @@
         <v>12</v>
       </c>
       <c r="I12" s="43">
-        <f t="shared" ref="I12:J21" si="2">C12+E12+G12</f>
+        <f t="shared" ref="I12:J21" si="3">C12+E12+G12</f>
         <v>99</v>
       </c>
       <c r="J12" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="K12" s="36">
@@ -3744,11 +3750,11 @@
         <v>12</v>
       </c>
       <c r="Q12" s="39">
-        <f t="shared" ref="Q12:R21" si="3">K12+M12+O12</f>
+        <f t="shared" ref="Q12:R21" si="4">K12+M12+O12</f>
         <v>145</v>
       </c>
       <c r="R12" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
       <c r="S12" s="36">
@@ -3776,6 +3782,10 @@
       <c r="Z12" s="39">
         <f t="shared" si="1"/>
         <v>201</v>
+      </c>
+      <c r="AB12" s="11">
+        <f t="shared" si="2"/>
+        <v>445</v>
       </c>
       <c r="AH12" s="2"/>
       <c r="AI12" s="11"/>
@@ -3788,11 +3798,11 @@
         <v>2555</v>
       </c>
       <c r="AL12" s="2"/>
-      <c r="AM12" s="56">
+      <c r="AM12" s="54">
         <f t="shared" si="0"/>
         <v>445</v>
       </c>
-      <c r="AN12" s="56"/>
+      <c r="AN12" s="54"/>
     </row>
     <row r="13" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="47"/>
@@ -3818,11 +3828,11 @@
         <v>16</v>
       </c>
       <c r="I13" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="J13" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>129</v>
       </c>
       <c r="K13" s="36">
@@ -3844,11 +3854,11 @@
         <v>16</v>
       </c>
       <c r="Q13" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>118</v>
       </c>
       <c r="R13" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>133</v>
       </c>
       <c r="S13" s="36">
@@ -3877,19 +3887,23 @@
         <f t="shared" si="1"/>
         <v>262</v>
       </c>
+      <c r="AB13" s="11">
+        <f t="shared" si="2"/>
+        <v>460</v>
+      </c>
       <c r="AH13" s="2"/>
       <c r="AI13" s="11"/>
-      <c r="AJ13" s="56">
+      <c r="AJ13" s="54">
         <f>SUM(AJ12:AK12)</f>
         <v>4599</v>
       </c>
-      <c r="AK13" s="56"/>
+      <c r="AK13" s="54"/>
       <c r="AL13" s="2"/>
-      <c r="AM13" s="56">
+      <c r="AM13" s="54">
         <f t="shared" si="0"/>
         <v>460</v>
       </c>
-      <c r="AN13" s="56"/>
+      <c r="AN13" s="54"/>
     </row>
     <row r="14" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="47"/>
@@ -3915,11 +3929,11 @@
         <v>8</v>
       </c>
       <c r="I14" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="J14" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
       <c r="K14" s="36">
@@ -3941,34 +3955,34 @@
         <v>13</v>
       </c>
       <c r="Q14" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="R14" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>125</v>
       </c>
       <c r="S14" s="36">
         <v>38</v>
       </c>
       <c r="T14" s="36">
-        <f t="shared" ref="T14:X21" si="4">D14+L14</f>
+        <f t="shared" ref="T14:X21" si="5">D14+L14</f>
         <v>51</v>
       </c>
       <c r="U14" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>108</v>
       </c>
       <c r="V14" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>139</v>
       </c>
       <c r="W14" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="X14" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="Y14" s="39">
@@ -3978,17 +3992,21 @@
       <c r="Z14" s="39">
         <f t="shared" si="1"/>
         <v>211</v>
+      </c>
+      <c r="AB14" s="11">
+        <f t="shared" si="2"/>
+        <v>373</v>
       </c>
       <c r="AH14" s="2"/>
       <c r="AI14" s="11"/>
       <c r="AJ14" s="11"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
-      <c r="AM14" s="56">
+      <c r="AM14" s="54">
         <f t="shared" si="0"/>
         <v>373</v>
       </c>
-      <c r="AN14" s="56"/>
+      <c r="AN14" s="54"/>
     </row>
     <row r="15" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="47"/>
@@ -4014,11 +4032,11 @@
         <v>12</v>
       </c>
       <c r="I15" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="J15" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
       <c r="K15" s="36">
@@ -4040,35 +4058,35 @@
         <v>15</v>
       </c>
       <c r="Q15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
       <c r="R15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>132</v>
       </c>
       <c r="S15" s="36">
-        <f t="shared" ref="S15:S21" si="5">C15+K15</f>
+        <f t="shared" ref="S15:S21" si="6">C15+K15</f>
         <v>42</v>
       </c>
       <c r="T15" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="U15" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>106</v>
       </c>
       <c r="V15" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>151</v>
       </c>
       <c r="W15" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="X15" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="Y15" s="39">
@@ -4078,17 +4096,21 @@
       <c r="Z15" s="39">
         <f t="shared" si="1"/>
         <v>223</v>
+      </c>
+      <c r="AB15" s="11">
+        <f t="shared" si="2"/>
+        <v>392</v>
       </c>
       <c r="AH15" s="2"/>
       <c r="AI15" s="11"/>
       <c r="AJ15" s="11"/>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
-      <c r="AM15" s="56">
+      <c r="AM15" s="54">
         <f t="shared" si="0"/>
         <v>392</v>
       </c>
-      <c r="AN15" s="56"/>
+      <c r="AN15" s="54"/>
     </row>
     <row r="16" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="47"/>
@@ -4114,11 +4136,11 @@
         <v>6</v>
       </c>
       <c r="I16" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
       <c r="J16" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>87</v>
       </c>
       <c r="K16" s="36">
@@ -4140,35 +4162,35 @@
         <v>17</v>
       </c>
       <c r="Q16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="R16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>129</v>
       </c>
       <c r="S16" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="T16" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="U16" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
       <c r="V16" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>145</v>
       </c>
       <c r="W16" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="X16" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="Y16" s="39">
@@ -4178,17 +4200,21 @@
       <c r="Z16" s="39">
         <f t="shared" si="1"/>
         <v>216</v>
+      </c>
+      <c r="AB16" s="11">
+        <f t="shared" si="2"/>
+        <v>381</v>
       </c>
       <c r="AH16" s="2"/>
       <c r="AI16" s="11"/>
       <c r="AJ16" s="11"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
-      <c r="AM16" s="56">
+      <c r="AM16" s="54">
         <f t="shared" si="0"/>
         <v>381</v>
       </c>
-      <c r="AN16" s="56"/>
+      <c r="AN16" s="54"/>
     </row>
     <row r="17" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="47"/>
@@ -4217,7 +4243,7 @@
         <v>48</v>
       </c>
       <c r="J17" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="K17" s="36">
@@ -4239,35 +4265,35 @@
         <v>9</v>
       </c>
       <c r="Q17" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="R17" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="S17" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="T17" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="U17" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="V17" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="W17" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="X17" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="Y17" s="39">
@@ -4277,17 +4303,21 @@
       <c r="Z17" s="39">
         <f t="shared" si="1"/>
         <v>163</v>
+      </c>
+      <c r="AB17" s="11">
+        <f t="shared" si="2"/>
+        <v>277</v>
       </c>
       <c r="AH17" s="2"/>
       <c r="AI17" s="11"/>
       <c r="AJ17" s="11"/>
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
-      <c r="AM17" s="56">
+      <c r="AM17" s="54">
         <f t="shared" si="0"/>
         <v>277</v>
       </c>
-      <c r="AN17" s="56"/>
+      <c r="AN17" s="54"/>
     </row>
     <row r="18" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="47"/>
@@ -4313,11 +4343,11 @@
         <v>9</v>
       </c>
       <c r="I18" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="J18" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="K18" s="36">
@@ -4339,35 +4369,35 @@
         <v>13</v>
       </c>
       <c r="Q18" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="R18" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>114</v>
       </c>
       <c r="S18" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
       <c r="T18" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="U18" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="V18" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>122</v>
       </c>
       <c r="W18" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="X18" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="Y18" s="39">
@@ -4377,17 +4407,21 @@
       <c r="Z18" s="39">
         <f t="shared" si="1"/>
         <v>191</v>
+      </c>
+      <c r="AB18" s="11">
+        <f t="shared" si="2"/>
+        <v>328</v>
       </c>
       <c r="AH18" s="2"/>
       <c r="AI18" s="11"/>
       <c r="AJ18" s="11"/>
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
-      <c r="AM18" s="56">
+      <c r="AM18" s="54">
         <f t="shared" si="0"/>
         <v>328</v>
       </c>
-      <c r="AN18" s="56"/>
+      <c r="AN18" s="54"/>
     </row>
     <row r="19" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="47"/>
@@ -4413,11 +4447,11 @@
         <v>10</v>
       </c>
       <c r="I19" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="J19" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="K19" s="36">
@@ -4439,35 +4473,35 @@
         <v>20</v>
       </c>
       <c r="Q19" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="R19" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>151</v>
       </c>
       <c r="S19" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="T19" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="U19" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>112</v>
       </c>
       <c r="V19" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>181</v>
       </c>
       <c r="W19" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="X19" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="Y19" s="39">
@@ -4477,17 +4511,21 @@
       <c r="Z19" s="39">
         <f t="shared" si="1"/>
         <v>257</v>
+      </c>
+      <c r="AB19" s="11">
+        <f t="shared" si="2"/>
+        <v>442</v>
       </c>
       <c r="AH19" s="2"/>
       <c r="AI19" s="11"/>
       <c r="AJ19" s="11"/>
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
-      <c r="AM19" s="56">
+      <c r="AM19" s="54">
         <f t="shared" si="0"/>
         <v>442</v>
       </c>
-      <c r="AN19" s="56"/>
+      <c r="AN19" s="54"/>
     </row>
     <row r="20" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="47"/>
@@ -4513,11 +4551,11 @@
         <v>10</v>
       </c>
       <c r="I20" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="J20" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="K20" s="36">
@@ -4539,35 +4577,35 @@
         <v>10</v>
       </c>
       <c r="Q20" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>97</v>
       </c>
       <c r="R20" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>147</v>
       </c>
       <c r="S20" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="T20" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="U20" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="V20" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>173</v>
       </c>
       <c r="W20" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="X20" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="Y20" s="39">
@@ -4577,17 +4615,21 @@
       <c r="Z20" s="39">
         <f t="shared" si="1"/>
         <v>239</v>
+      </c>
+      <c r="AB20" s="11">
+        <f t="shared" si="2"/>
+        <v>404</v>
       </c>
       <c r="AH20" s="2"/>
       <c r="AI20" s="11"/>
       <c r="AJ20" s="11"/>
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
-      <c r="AM20" s="56">
+      <c r="AM20" s="54">
         <f t="shared" si="0"/>
         <v>404</v>
       </c>
-      <c r="AN20" s="56"/>
+      <c r="AN20" s="54"/>
     </row>
     <row r="21" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="47"/>
@@ -4613,11 +4655,11 @@
         <v>16</v>
       </c>
       <c r="I21" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="J21" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>97</v>
       </c>
       <c r="K21" s="36">
@@ -4639,35 +4681,35 @@
         <v>20</v>
       </c>
       <c r="Q21" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>129</v>
       </c>
       <c r="R21" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>164</v>
       </c>
       <c r="S21" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>76</v>
       </c>
       <c r="T21" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="U21" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>108</v>
       </c>
       <c r="V21" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>171</v>
       </c>
       <c r="W21" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="X21" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="Y21" s="39">
@@ -4677,117 +4719,125 @@
       <c r="Z21" s="39">
         <f t="shared" si="1"/>
         <v>261</v>
+      </c>
+      <c r="AB21" s="11">
+        <f t="shared" si="2"/>
+        <v>475</v>
       </c>
       <c r="AH21" s="2"/>
       <c r="AI21" s="11"/>
       <c r="AJ21" s="11"/>
       <c r="AK21" s="2"/>
       <c r="AL21" s="2"/>
-      <c r="AM21" s="56">
+      <c r="AM21" s="54">
         <f t="shared" si="0"/>
         <v>475</v>
       </c>
-      <c r="AN21" s="56"/>
+      <c r="AN21" s="54"/>
     </row>
     <row r="22" spans="1:40" s="48" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="43">
-        <f t="shared" ref="C22:Z22" si="6">SUM(C10:C21)</f>
+        <f t="shared" ref="C22:Z22" si="7">SUM(C10:C21)</f>
         <v>239</v>
       </c>
       <c r="D22" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>241</v>
       </c>
       <c r="E22" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>477</v>
       </c>
       <c r="F22" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>667</v>
       </c>
       <c r="G22" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>112</v>
       </c>
       <c r="H22" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>119</v>
       </c>
       <c r="I22" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>850</v>
       </c>
       <c r="J22" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1094</v>
       </c>
       <c r="K22" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>358</v>
       </c>
       <c r="L22" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>347</v>
       </c>
       <c r="M22" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>678</v>
       </c>
       <c r="N22" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>997</v>
       </c>
       <c r="O22" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="P22" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>184</v>
       </c>
       <c r="Q22" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1191</v>
       </c>
       <c r="R22" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1509</v>
       </c>
       <c r="S22" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>597</v>
       </c>
       <c r="T22" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>588</v>
       </c>
       <c r="U22" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1155</v>
       </c>
       <c r="V22" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1664</v>
       </c>
       <c r="W22" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>292</v>
       </c>
       <c r="X22" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>303</v>
       </c>
       <c r="Y22" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2044</v>
       </c>
       <c r="Z22" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2555</v>
+      </c>
+      <c r="AB22" s="11">
+        <f t="shared" si="2"/>
+        <v>4599</v>
       </c>
       <c r="AF22" s="40"/>
       <c r="AG22" s="14"/>
@@ -4796,43 +4846,43 @@
       <c r="AJ22" s="14"/>
       <c r="AK22" s="14"/>
       <c r="AL22" s="14"/>
-      <c r="AM22" s="56">
+      <c r="AM22" s="54">
         <f t="shared" si="0"/>
         <v>4599</v>
       </c>
-      <c r="AN22" s="56"/>
+      <c r="AN22" s="54"/>
     </row>
     <row r="23" spans="1:40" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="70">
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="76">
         <f>Y22+Z22</f>
         <v>4599</v>
       </c>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="71"/>
-      <c r="U23" s="71"/>
-      <c r="V23" s="71"/>
-      <c r="W23" s="71"/>
-      <c r="X23" s="71"/>
-      <c r="Y23" s="71"/>
-      <c r="Z23" s="72"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="77"/>
+      <c r="V23" s="77"/>
+      <c r="W23" s="77"/>
+      <c r="X23" s="77"/>
+      <c r="Y23" s="77"/>
+      <c r="Z23" s="78"/>
       <c r="AF23" s="41"/>
       <c r="AG23" s="11"/>
       <c r="AH23" s="40"/>
@@ -4874,6 +4924,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="AM15:AN15"/>
+    <mergeCell ref="AM16:AN16"/>
+    <mergeCell ref="AM17:AN17"/>
+    <mergeCell ref="AM18:AN18"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="K7:R7"/>
+    <mergeCell ref="S7:Z7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="AM14:AN14"/>
+    <mergeCell ref="AJ13:AK13"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AM10:AN10"/>
+    <mergeCell ref="AM11:AN11"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AM21:AN21"/>
+    <mergeCell ref="AM22:AN22"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="N23:Z23"/>
+    <mergeCell ref="AM19:AN19"/>
+    <mergeCell ref="AM20:AN20"/>
     <mergeCell ref="AM13:AN13"/>
     <mergeCell ref="B2:Z2"/>
     <mergeCell ref="B3:Z3"/>
@@ -4890,28 +4962,6 @@
     <mergeCell ref="U8:V8"/>
     <mergeCell ref="W8:X8"/>
     <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AM21:AN21"/>
-    <mergeCell ref="AM22:AN22"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="N23:Z23"/>
-    <mergeCell ref="AM19:AN19"/>
-    <mergeCell ref="AM20:AN20"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="AM15:AN15"/>
-    <mergeCell ref="AM16:AN16"/>
-    <mergeCell ref="AM17:AN17"/>
-    <mergeCell ref="AM18:AN18"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="K7:R7"/>
-    <mergeCell ref="S7:Z7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="AM14:AN14"/>
-    <mergeCell ref="AJ13:AK13"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AM10:AN10"/>
-    <mergeCell ref="AM11:AN11"/>
-    <mergeCell ref="AM12:AN12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283461" right="0.70866141732283461" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
